--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5215">
   <si>
     <t>translation_group</t>
   </si>
@@ -15616,12 +15616,6 @@
   </si>
   <si>
     <t xml:space="preserve"> pemberitahuan</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16008,17 +16002,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54665,18 +54659,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5199</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5200</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54686,10 +54672,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
       <c r="D2763" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54700,10 +54686,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="D2764" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54714,10 +54700,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="D2765" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54728,10 +54714,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="D2766" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54742,10 +54728,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="D2767" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54756,10 +54742,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
       <c r="D2768" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54770,10 +54756,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="D2769" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54812,11 +54798,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
       <c r="D2772" t="s">
-        <v>5216</v>
-      </c>
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5882">
   <si>
     <t>translation_group</t>
   </si>
@@ -10121,7 +10121,7 @@
     <t>Tetapan Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Isi bidang untuk hasil maksimum ketika mencari laman web anda di mesin pencari.</t>
@@ -17074,6 +17074,607 @@
   </si>
   <si>
     <t>Pembekal surat</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Selamat datang ke Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Gunakan Microweber untuk membina laman web, kedai dalam talian atau blog anda.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Buat dan edit kandungan, jual dalam talian, urus pesanan dan pelanggan.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Keluarkan</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Anda menggunakan templat ini.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Perubahan hanya akan mempengaruhi halaman semasa.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Benarkan pelbagai templat</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Sekiranya anda membenarkan beberapa templat, anda akan dapat menggunakan templat yang berbeza ketika anda membuat halaman baru.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Tetapan laman web e-mel sistem</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Sampaikan mesej yang berkaitan dengan pendaftaran baru, tetapan semula kata laluan dan fungsi sistem lain.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Dari alamat e-mel</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Cth. Nama Laman Web Anda</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Tetapan penyedia e-mel umum</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Sediakan pembekal e-mel anda.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Penyedia e-mel umum akan menyampaikan semua mesej yang berkaitan dengan laman web. Termasuk mesej sistem dan mesej borang hubungan.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo Laman Web</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Pilih logo untuk laman web anda.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Muat naik logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Laman web Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Menukar bahasa lalai ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Kosongkan cache..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Pasang Modul Pelbagai Bahasa</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Pengguna yang mendaftar dapat menerima e-mel automatik secara automatik dari anda. Lihat tetapan dan hantar mesej anda.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Hantarkan e-mel mengenai pendaftaran pengguna baru kepada pengguna pentadbir</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Adakah anda mahu pentadbir menerima e-mel semasa pengguna baru didaftarkan?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber adalah pembangun laman web drag and drop sumber terbuka percuma dan CMS. Itu di bawah lesen MIT dan kami menggunakan rangka kerja PHP Laravel</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Penghantaran ke alamat</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Pengambilan dari alamat</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Tetapan global</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integrasi E-mel</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Anda tidak mempunyai persediaan e-mel dan smtp sistem.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Sediakan tetapan sistem anda di sini.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Tetapan borang hubungan global</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Pilihan penghantaran e-mel</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Penghantar global</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Gunakan tetapan pengirim tersuai</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Gunakan tetapan pengirim tersuai untuk borang hubungan global.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Secara lalai kami akan menggunakan tetapan e-mel sistem laman web.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>Anda boleh menukar tetapan e-mel sistem di sini.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Penerima Global</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Hantar data borang kenalan ke penerima global apabila dihantar</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Ke alamat e-mel</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Alamat e-mel penerima dipisahkan dengan koma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Hubungi penyedia hosting anda untuk mengaktifkan sambungan PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Unsur</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 bulan lepas</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Keluarkan favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Adat</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>Skema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>ProdukV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Garis Masa</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Label putih WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Templat modul telah berubah</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Versi kandungan</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Susun atur dan elemen lalai</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Senarai Anak Panah</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Senarai yang diperiksa</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Teks Latar Belakang</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Tajuk dengan Teks</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikon dengan Teks</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Dua Lajur Teks</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Dua lajur teks dengan ikon dan tajuk</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Gambar dengan Tajuk dan Teks</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Teks dengan Gambar dan Tajuk</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Dayakan komen</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Tetapan Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediakan pilihan captcha anda dari </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Tambah / Edit medan borang menggunakan bidang tersuai</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Tetapan borang kenalan semasa</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Nama borang kenalan</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Apakah nama borang hubungan ini?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Penerima</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Hantarkan data borang hubungan ke penerima khas ketika diserahkan</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gunakan tetapan penerima khas untuk borang kenalan semasa.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Secara lalai kami akan menggunakan tetapan global borang hubungan.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Anda boleh menukar tetapan global borang hubungan di sini.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Mesej balasan secara automatik kepada pengguna</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Dayakan mesej respons automatik kepada pengguna</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Benarkan pengguna menerima "E-mel terima kasih setelah berlangganan."</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Subjek respons automatik</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Mesej respons automatik</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>E-mel balas automatik dihantar kembali kepada pengguna</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Penghantar tersuai bertindak balas secara automatik</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gunakan tetapan pengirim tersuai untuk borang kenalan semasa.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Balas secara automatik dari alamat e-mel</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Balas automatik dari nama</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Balas balasan secara automatik ke e-mel</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Apabila pengguna menerima pesanan balas automatik, mereka dapat memberi respons semula untuk membalas e-mel.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Lampirkan lampiran e-mel secara automatik</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Anda belum mempunyai siaran</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Buat catatan pertama anda sekarang.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Buat Catatan</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Cara menulis deskripsi produk yang menjual
+                                                    Salah satu perkara terbaik yang boleh anda lakukan untuk membuat kedai anda berjaya ialah meluangkan masa untuk menulis keterangan produk yang hebat. Anda ingin memberikan maklumat terperinci namun ringkas yang akan menarik minat bakal pelanggan untuk membeli.
+                                                    Berfikir seperti pengguna
+                                                    Fikirkan tentang apa yang anda ingin pengguna ketahui, kemudian sertakan ciri-ciri tersebut dalam keterangan anda. Untuk pakaian: bahan dan sesuai. Untuk makanan: ramuan dan cara penyediaannya. Peluru adalah rakan anda ketika menyenaraikan
+                                                   ciri - cuba
+                                                            had setiap satu hingga 5-8 perkataan.</t>
   </si>
 </sst>
 </file>
@@ -17412,7 +18013,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67720,6 +68321,1757 @@
         <v>5684</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5703</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5711</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5713</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5717</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4203</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5879</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6166">
   <si>
     <t>translation_group</t>
   </si>
@@ -17675,6 +17675,858 @@
                                                     Fikirkan tentang apa yang anda ingin pengguna ketahui, kemudian sertakan ciri-ciri tersebut dalam keterangan anda. Untuk pakaian: bahan dan sesuai. Untuk makanan: ramuan dan cara penyediaannya. Peluru adalah rakan anda ketika menyenaraikan
                                                    ciri - cuba
                                                             had setiap satu hingga 5-8 perkataan.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Bahasa pentadbir</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Had</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Editor Kod</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>blok teks</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Blok teks 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Blok teks 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Blok teks 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Blok teks 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Blok teks 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Blok teks 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Blok teks 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Blok teks 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Blok teks 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Blok teks 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Blok teks 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Blok teks 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Blok teks 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Blok teks 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Blok teks 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Ciri-ciri 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Ciri-ciri 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Ciri-ciri 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Ciri-ciri 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - kulit-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - kulit-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - kulit-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - kulit-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menu - kulit-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>pengaki</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Pengaki 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Pengaki 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Pengaki 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Pengaki 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>lain</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>penentuan harga</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Harga 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Reka letak lalai</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Tiada Kandungan Di Sini</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Medan tersuai disimpan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Medan sedia ada</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Pilih daripada medan sedia ada anda di bawah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tambah medan baharu</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Tambahkan medan tersuai baharu daripada senarai di bawah</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>bidang anda</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Senarai medan tersuai anda yang ditambah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulang secara menegak </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Keluarga Font</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Tindanan</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Mod campuran</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>bekas</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Jenis bekas</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animasi</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Memuat semula gaya</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Pautan ke</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pakej pratonton</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>guna</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>semasa</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Susun semula</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ubah hala Penyemak Imbas</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrasi</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Pengemas Kini Berdiri</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Anda memerlukan kunci lesen untuk memasang pakej ini</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Pakej ini adalah premium dan anda mesti mempunyai kunci lesen untuk memasangnya</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Anda memerlukan kunci lesen</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Lesen diaktifkan</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Memuat semula halaman</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Lesen tidak diaktifkan</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Kemas kini sistem</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Semak kemas kini sistem</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Kembali kepada senarai</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Kategori mesti mempunyai nama</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Adakah kategori disembunyikan?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Jika anda menetapkan ini kepada YA kategori ini akan disembunyikan daripada tapak web</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Menyebut</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Troli anda kosong.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Keputusan ditemui</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Jika anda memilih Peratusan daripada medan pilihan, ia akan dikira secara automatik daripada Harga dan harga Tawaran produk.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Teruskan ke Checkout</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>Memaparkan</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>daripada</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>keputusan</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Tajuk Halaman - Serbuk Roti Kanan</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Tajuk Halaman - Serbuk Roti Kiri</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Syarat penggunaan</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Penghantaran dan pemulangan</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Kira-kira 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Kira-kira 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Kira-kira 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Rumah 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Rumah 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Anda mesti mengklik butang gunakan templat untuk menukar templat anda</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Cari mengikut kriteria</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>ID Pesanan</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Tarikh dari</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Tetapkan pesanan dari tarikh</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Tarikh ke</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Tetapkan pesanan sehingga kini</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Jumlah pesanan daripada</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Tunjukkan pesanan dengan jumlah minimum</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Jumlah pesanan kepada</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Tunjukkan pesanan dengan jumlah maksimum</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Cari mengikut produk...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Cari mengikut produk</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Status bayaran</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Carian percuma melalui telefon, nama, e-mel dll...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Hantar kriteria ini</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Tetapkan semula penapis</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Eksport semua</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Pilih pengisihan</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Tarikh pesanan</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Baharu &gt; Lama]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Lama &gt; Baharu]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Tinggi &gt; Rendah]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Rendah &gt; Tinggi]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>terjemahan daripada modul berbilang bahasa telah ditemui dalam pangkalan data anda.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Amaran! Menukar bahasa lalai boleh memecahkan terjemahan di tapak anda.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Adakah anda pasti mahu meneruskan?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Amaran! Bahasa lalai yang berubah mungkin akan memecahkan tapak anda.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Butiran penghantaran</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Jenis penghantaran</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>pesanan belum selesai lagi</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>pesanan selesai</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandangan pantas </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Gantikan nilai bahasa</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Terjemahan diimport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terjemahan tidak ditemui dalam pangkalan data. Adakah anda ingin mengimport terjemahan? </t>
   </si>
 </sst>
 </file>
@@ -17698,10 +18550,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17712,7 +18561,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18013,7 +18862,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70075,8 +70924,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>4193</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5454</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5456</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5458</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5460</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5462</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5464</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5466</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5468</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5921</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5923</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6003</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6048</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5879</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6058</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6058</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6086</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6087</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6107</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6108</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6109</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6110</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6145</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6146</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6147</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6149</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6150</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6151</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6153</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6155</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70088,5 +73571,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ms_MY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5990">
   <si>
     <t>translation_group</t>
   </si>
@@ -10124,7 +10124,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>Isi bidang untuk hasil maksimum ketika mencari laman web anda di mesin pencari.</t>
+    <t>Isikan medan untuk hasil maksimum apabila mencari tapak web anda dalam enjin carian.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17085,19 +17085,19 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Gunakan Microweber untuk membina laman web, kedai dalam talian atau blog anda.</t>
+    <t>Gunakan Microweber untuk membina tapak web, kedai dalam talian atau blog anda.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>Buat dan edit kandungan, jual dalam talian, urus pesanan dan pelanggan.</t>
+    <t>Cipta dan edit kandungan, jual dalam talian, urus pesanan dan pelanggan.</t>
   </si>
   <si>
     <t>Remove</t>
   </si>
   <si>
-    <t>Keluarkan</t>
+    <t>Alih keluar</t>
   </si>
   <si>
     <t>Abandoned cart's</t>
@@ -17118,25 +17118,25 @@
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Benarkan pelbagai templat</t>
+    <t>Benarkan berbilang templat</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>Sekiranya anda membenarkan beberapa templat, anda akan dapat menggunakan templat yang berbeza ketika anda membuat halaman baru.</t>
+    <t>Jika anda membenarkan berbilang templat, anda akan boleh menggunakan templat yang berbeza apabila anda membuat halaman baharu.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>Tetapan laman web e-mel sistem</t>
+    <t>Tetapan tapak web e-mel sistem</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Sampaikan mesej yang berkaitan dengan pendaftaran baru, tetapan semula kata laluan dan fungsi sistem lain.</t>
+    <t>Hantar mesej yang berkaitan dengan pendaftaran baharu, tetapan semula kata laluan dan fungsi sistem lain.</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17154,7 +17154,7 @@
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>Tetapan penyedia e-mel umum</t>
+    <t>Tetapan pembekal e-mel am</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
@@ -17166,7 +17166,7 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Penyedia e-mel umum akan menyampaikan semua mesej yang berkaitan dengan laman web. Termasuk mesej sistem dan mesej borang hubungan.</t>
+    <t>Pembekal e-mel am akan menghantar semua mesej yang berkaitan dengan tapak web. Termasuk mesej sistem dan mesej borang hubungan.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17178,7 +17178,7 @@
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Pilih logo untuk laman web anda.</t>
+    <t>Pilih logo untuk tapak web anda.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17190,13 +17190,13 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Laman web Favicon</t>
+    <t>Favicon Laman Web</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Menukar bahasa lalai ..</t>
+    <t>Menukar bahasa lalai..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17208,39 +17208,45 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Pasang Modul Pelbagai Bahasa</t>
+    <t>Pasang Modul Berbilang Bahasa</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Pengguna boleh mendaftar dengan e-mel sementara seperti - Mailinator, MailDrop, Gerila...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Pengguna yang mendaftar dapat menerima e-mel automatik secara automatik dari anda. Lihat tetapan dan hantar mesej anda.</t>
+    <t>Pengguna yang mendaftar boleh menerima e-mel automatik daripada anda secara automatik. Lihat tetapan dan siarkan mesej anda.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Hantarkan e-mel mengenai pendaftaran pengguna baru kepada pengguna pentadbir</t>
+    <t>Hantar e-mel mengenai pendaftaran pengguna baharu kepada pengguna pentadbir</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Adakah anda mahu pentadbir menerima e-mel semasa pengguna baru didaftarkan?</t>
+    <t>Adakah anda mahu pentadbir menerima e-mel apabila pengguna baharu didaftarkan?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber adalah pembangun laman web drag and drop sumber terbuka percuma dan CMS. Itu di bawah lesen MIT dan kami menggunakan rangka kerja PHP Laravel</t>
+    <t>Microweber ialah pembangun laman web seret dan lepas sumber terbuka percuma dan CMS. Ia berada di bawah lesen MIT dan kami menggunakan rangka kerja PHP Laravel</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
+    <t>Seorang Slider</t>
+  </si>
+  <si>
     <t>Shipping to address</t>
   </si>
   <si>
@@ -17268,7 +17274,7 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>Anda tidak mempunyai persediaan e-mel dan smtp sistem.</t>
+    <t>Anda tidak mempunyai e-mel sistem dan persediaan smtp.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -17298,19 +17304,19 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Gunakan tetapan pengirim tersuai</t>
+    <t>Gunakan tetapan penghantar tersuai</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Gunakan tetapan pengirim tersuai untuk borang hubungan global.</t>
+    <t>Gunakan tetapan penghantar tersuai untuk borang hubungan global.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Secara lalai kami akan menggunakan tetapan e-mel sistem laman web.</t>
+    <t>Secara lalai kami akan menggunakan tetapan e-mel sistem tapak web.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17328,13 +17334,13 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Hantar data borang kenalan ke penerima global apabila dihantar</t>
+    <t>Hantar data borang hubungan kepada penerima global apabila diserahkan</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Ke alamat e-mel</t>
+    <t>Kepada alamat e-mel</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
@@ -17346,13 +17352,13 @@
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Hubungi penyedia hosting anda untuk mengaktifkan sambungan PHP SOAP.</t>
+    <t>Hubungi pembekal pengehosan anda untuk mendayakan sambungan PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
   </si>
   <si>
-    <t>Unsur</t>
+    <t>elemen</t>
   </si>
   <si>
     <t>2 months ago</t>
@@ -17364,10 +17370,13 @@
     <t>Remove logo</t>
   </si>
   <si>
+    <t>Alih keluar logo</t>
+  </si>
+  <si>
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>Keluarkan favicon</t>
+    <t>Alih keluar favicon</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17382,9 +17391,6 @@
     <t>Schema.org</t>
   </si>
   <si>
-    <t>Skema.org</t>
-  </si>
-  <si>
     <t>ProductsV2</t>
   </si>
   <si>
@@ -17394,7 +17400,7 @@
     <t>Timeline</t>
   </si>
   <si>
-    <t>Garis Masa</t>
+    <t>Garis masa</t>
   </si>
   <si>
     <t>White label WHMCS</t>
@@ -17406,6 +17412,9 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Bilangan testimoni yang boleh dilihat</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
@@ -17424,19 +17433,19 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Susun atur dan elemen lalai</t>
+    <t>Reka letak dan elemen lalai</t>
   </si>
   <si>
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Senarai Anak Panah</t>
+    <t>Senarai anak panah</t>
   </si>
   <si>
     <t>Checked List</t>
   </si>
   <si>
-    <t>Senarai yang diperiksa</t>
+    <t>Senarai Disemak</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17472,13 +17481,13 @@
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>Gambar dengan Tajuk dan Teks</t>
+    <t>Imej dengan Tajuk dan Teks</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>Teks dengan Gambar dan Tajuk</t>
+    <t>Teks dengan Imej dan Tajuk</t>
   </si>
   <si>
     <t>Text with Image</t>
@@ -17487,7 +17496,7 @@
     <t>Enable comments</t>
   </si>
   <si>
-    <t>Dayakan komen</t>
+    <t>Dayakan ulasan</t>
   </si>
   <si>
     <t>Captcha settings</t>
@@ -17499,19 +17508,16 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Sediakan pilihan captcha anda dari </t>
+    <t xml:space="preserve">Sediakan pilihan captcha anda daripada </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
-    <t>Tambah / Edit medan borang menggunakan bidang tersuai</t>
-  </si>
-  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Tetapan borang kenalan semasa</t>
+    <t>Tetapan borang hubungan semasa</t>
   </si>
   <si>
     <t>Contact form name</t>
@@ -17535,127 +17541,133 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Hantarkan data borang hubungan ke penerima khas ketika diserahkan</t>
+    <t>Hantar data borang hubungan kepada penerima tersuai apabila diserahkan</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Gunakan tetapan penerima khas untuk borang kenalan semasa.</t>
+    <t>Gunakan tetapan penerima tersuai untuk borang hubungan semasa.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Secara lalai kami akan menggunakan tetapan global borang hubungan.</t>
+    <t>Secara lalai kami akan menggunakan tetapan global borang kenalan.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>Anda boleh menukar tetapan global borang hubungan di sini.</t>
+    <t>Anda boleh menukar tetapan global borang kenalan di sini.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Mesej balasan secara automatik kepada pengguna</t>
+    <t>Auto balas mesej kepada pengguna</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Dayakan mesej respons automatik kepada pengguna</t>
+    <t>Dayakan mesej auto balas kepada pengguna</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Benarkan pengguna menerima "E-mel terima kasih setelah berlangganan."</t>
+    <t>Benarkan pengguna menerima "E-mel terima kasih selepas langganan."</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Subjek respons automatik</t>
+    <t>Auto balas subjek</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Autoresponder membolehkan anda menyediakan balasan automatik kepada e-mel masuk</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Mesej respons automatik</t>
+    <t>Auto balas mesej</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>E-mel balas automatik dihantar kembali kepada pengguna</t>
+    <t>Auto balas e-mel dihantar semula kepada pengguna</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Penghantar tersuai bertindak balas secara automatik</t>
+    <t>Auto balas penghantar tersuai</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Gunakan tetapan pengirim tersuai untuk borang kenalan semasa.</t>
+    <t>Gunakan tetapan penghantar tersuai untuk borang hubungan semasa.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>Balas secara automatik dari alamat e-mel</t>
+    <t>Balas automatik dari alamat e-mel</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>Balas automatik dari nama</t>
+    <t>Auto balas daripada nama</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Balas balasan secara automatik ke e-mel</t>
+    <t>Balas auto balas kepada e-mel</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Apabila pengguna menerima pesanan balas automatik, mereka dapat memberi respons semula untuk membalas e-mel.</t>
+    <t>Apabila pengguna menerima mesej auto balas, mereka boleh membalas semula untuk membalas e-mel.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Lampirkan lampiran e-mel secara automatik</t>
+    <t>Lampiran e-mel balas automatik</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>Jika anda ingin melampirkan imej og, anda mesti memuat naiknya ke galeri daripada 'Tambah media'</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>Anda belum mempunyai siaran</t>
+    <t>Anda belum mempunyai sebarang siaran lagi</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Buat catatan pertama anda sekarang.</t>
+    <t>Buat siaran pertama anda sekarang.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Buat Catatan</t>
+    <t>Buat Siaran</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17669,12 +17681,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Cara menulis deskripsi produk yang menjual
-                                                    Salah satu perkara terbaik yang boleh anda lakukan untuk membuat kedai anda berjaya ialah meluangkan masa untuk menulis keterangan produk yang hebat. Anda ingin memberikan maklumat terperinci namun ringkas yang akan menarik minat bakal pelanggan untuk membeli.
+    <t>Cara menulis perihalan produk yang menjual
+                                                    Salah satu perkara terbaik yang boleh anda lakukan untuk menjadikan kedai anda berjaya ialah meluangkan sedikit masa untuk menulis perihalan produk yang hebat. Anda ingin memberikan maklumat terperinci lagi padat yang akan menarik pelanggan berpotensi untuk membeli.
                                                     Berfikir seperti pengguna
-                                                    Fikirkan tentang apa yang anda ingin pengguna ketahui, kemudian sertakan ciri-ciri tersebut dalam keterangan anda. Untuk pakaian: bahan dan sesuai. Untuk makanan: ramuan dan cara penyediaannya. Peluru adalah rakan anda ketika menyenaraikan
-                                                   ciri - cuba
-                                                            had setiap satu hingga 5-8 perkataan.</t>
+                                                    Fikirkan tentang perkara yang anda sebagai pengguna ingin tahu, kemudian masukkan ciri tersebut dalam huraian anda. Untuk pakaian: bahan dan sesuai. Untuk makanan: bahan-bahan dan cara ia disediakan. Bulet adalah rakan anda apabila menyenaraikan
+                                                   ciri — cuba
+                                                            mengehadkan setiap satu kepada 5-8 perkataan.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17683,316 +17695,262 @@
     <t>Bahasa pentadbir</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Tambah siaran</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Tambah subhalaman</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategori dipadamkan</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Cari kategori</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Buat kandungan</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>mana-mana</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Had</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Adakah anda pasti mahu memadamkan?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Anda tidak mempunyai sebarang produk</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Kembali kepada</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Medan tersuai disimpan</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Medan sedia ada</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Pilih daripada medan sedia ada anda di bawah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tambah medan baharu</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Tambah medan tersuai baharu daripada senarai di bawah</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>bidang anda</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Senarai medan tersuai anda yang ditambah</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stok</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Ubah hala Penyemak Imbas</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrasi</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Import Alat Eksport</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Pengemaskini Kendiri</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pakej pratonton</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>guna</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>semasa</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Ekspres</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Kelas pertama</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klik &amp; Kumpul</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Latar Belakang Video</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Anda boleh mengaktifkan modul Berbilang bahasa untuk menggunakan berbilang bahasa</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Mod berbilang bahasa</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktifkan mod berbilang bahasa untuk mempunyai berbilang bahasa untuk kandungan anda.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Terjemahan diimport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terjemahan tidak ditemui dalam pangkalan data. Adakah anda ingin mengimport terjemahan? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Troli anda kosong.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor Kod</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>blok teks</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Blok teks 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Blok teks 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Blok teks 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Blok teks 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Blok teks 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Blok teks 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Blok teks 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Blok teks 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Blok teks 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Blok teks 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Blok teks 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Blok teks 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Blok teks 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Blok teks 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Blok teks 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Ciri-ciri 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Ciri-ciri 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Ciri-ciri 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Ciri-ciri 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - kulit-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - kulit-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - kulit-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - kulit-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menu - kulit-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>pengaki</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Pengaki 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Pengaki 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Pengaki 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Pengaki 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>lain</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>penentuan harga</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Harga 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Reka letak lalai</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Tiada Kandungan Di Sini</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Medan tersuai disimpan</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Medan sedia ada</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Pilih daripada medan sedia ada anda di bawah</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tambah medan baharu</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Tambahkan medan tersuai baharu daripada senarai di bawah</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>bidang anda</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Senarai medan tersuai anda yang ditambah</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Import baharu</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18041,492 +17999,6 @@
   </si>
   <si>
     <t>Memuat semula gaya</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Pautan ke</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Pakej pratonton</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>guna</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>semasa</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Susun semula</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistem</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Ubah hala Penyemak Imbas</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrasi</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Pengemas Kini Berdiri</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Anda memerlukan kunci lesen untuk memasang pakej ini</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Pakej ini adalah premium dan anda mesti mempunyai kunci lesen untuk memasangnya</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Anda memerlukan kunci lesen</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Lesen diaktifkan</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Memuat semula halaman</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Lesen tidak diaktifkan</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Kemas kini sistem</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Semak kemas kini sistem</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Kembali kepada senarai</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Kategori mesti mempunyai nama</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Adakah kategori disembunyikan?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Jika anda menetapkan ini kepada YA kategori ini akan disembunyikan daripada tapak web</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Menyebut</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Troli anda kosong.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Keputusan ditemui</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Jika anda memilih Peratusan daripada medan pilihan, ia akan dikira secara automatik daripada Harga dan harga Tawaran produk.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Teruskan ke Checkout</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>Memaparkan</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>daripada</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>keputusan</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Tajuk Halaman - Serbuk Roti Kanan</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Tajuk Halaman - Serbuk Roti Kiri</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Syarat penggunaan</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Penghantaran dan pemulangan</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Kira-kira 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Kira-kira 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Kira-kira 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Rumah 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Rumah 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Anda mesti mengklik butang gunakan templat untuk menukar templat anda</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Cari mengikut kriteria</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>ID Pesanan</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Tarikh dari</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Tetapkan pesanan dari tarikh</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Tarikh ke</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Tetapkan pesanan sehingga kini</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Jumlah pesanan daripada</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Tunjukkan pesanan dengan jumlah minimum</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Jumlah pesanan kepada</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Tunjukkan pesanan dengan jumlah maksimum</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Cari mengikut produk...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Cari mengikut produk</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Status bayaran</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Carian percuma melalui telefon, nama, e-mel dll...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Hantar kriteria ini</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Tetapkan semula penapis</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Eksport semua</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Pilih pengisihan</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Tarikh pesanan</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Baharu &gt; Lama]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Lama &gt; Baharu]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Tinggi &gt; Rendah]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Rendah &gt; Tinggi]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>terjemahan daripada modul berbilang bahasa telah ditemui dalam pangkalan data anda.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Amaran! Menukar bahasa lalai boleh memecahkan terjemahan di tapak anda.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Adakah anda pasti mahu meneruskan?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Amaran! Bahasa lalai yang berubah mungkin akan memecahkan tapak anda.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Butiran penghantaran</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Jenis penghantaran</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>pesanan belum selesai lagi</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>pesanan selesai</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandangan pantas </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Gantikan nilai bahasa</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Terjemahan diimport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terjemahan tidak ditemui dalam pangkalan data. Adakah anda ingin mengimport terjemahan? </t>
   </si>
 </sst>
 </file>
@@ -18862,7 +18334,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69575,7 +69047,7 @@
         <v>5730</v>
       </c>
       <c r="D2983" t="s">
-        <v>3818</v>
+        <v>5731</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69589,10 +69061,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="D2984" t="s">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69606,10 +69078,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="D2985" t="s">
-        <v>5734</v>
+        <v>5735</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69623,10 +69095,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5735</v>
+        <v>5736</v>
       </c>
       <c r="D2986" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69640,10 +69112,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5737</v>
+        <v>5738</v>
       </c>
       <c r="D2987" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69657,10 +69129,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D2988" t="s">
-        <v>646</v>
+        <v>5741</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69674,10 +69146,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
       <c r="D2989" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69691,10 +69163,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
       <c r="D2990" t="s">
-        <v>5743</v>
+        <v>5745</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69708,10 +69180,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5744</v>
+        <v>5746</v>
       </c>
       <c r="D2991" t="s">
-        <v>5745</v>
+        <v>5747</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69725,10 +69197,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="D2992" t="s">
-        <v>5747</v>
+        <v>5749</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69742,10 +69214,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5748</v>
+        <v>5750</v>
       </c>
       <c r="D2993" t="s">
-        <v>5749</v>
+        <v>5751</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69759,10 +69231,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="D2994" t="s">
-        <v>5751</v>
+        <v>5753</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69776,10 +69248,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5752</v>
+        <v>5754</v>
       </c>
       <c r="D2995" t="s">
-        <v>5753</v>
+        <v>5755</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69793,10 +69265,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5754</v>
+        <v>5756</v>
       </c>
       <c r="D2996" t="s">
-        <v>5755</v>
+        <v>5757</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69810,10 +69282,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="D2997" t="s">
-        <v>5757</v>
+        <v>5759</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69827,10 +69299,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5758</v>
+        <v>5760</v>
       </c>
       <c r="D2998" t="s">
-        <v>5759</v>
+        <v>5761</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69844,10 +69316,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5760</v>
+        <v>5762</v>
       </c>
       <c r="D2999" t="s">
-        <v>5761</v>
+        <v>5763</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69861,10 +69333,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5762</v>
+        <v>5764</v>
       </c>
       <c r="D3000" t="s">
-        <v>5763</v>
+        <v>5765</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69878,10 +69350,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5764</v>
+        <v>5766</v>
       </c>
       <c r="D3001" t="s">
-        <v>5765</v>
+        <v>5767</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69895,10 +69367,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5766</v>
+        <v>5768</v>
       </c>
       <c r="D3002" t="s">
-        <v>5767</v>
+        <v>5769</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69912,10 +69384,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5768</v>
+        <v>5770</v>
       </c>
       <c r="D3003" t="s">
-        <v>5769</v>
+        <v>5771</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69929,10 +69401,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5770</v>
+        <v>5772</v>
       </c>
       <c r="D3004" t="s">
-        <v>5771</v>
+        <v>5773</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69946,10 +69418,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5772</v>
+        <v>5774</v>
       </c>
       <c r="D3005" t="s">
-        <v>5773</v>
+        <v>5775</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69963,10 +69435,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5774</v>
+        <v>5776</v>
       </c>
       <c r="D3006" t="s">
-        <v>5775</v>
+        <v>5777</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69980,10 +69452,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5776</v>
+        <v>5778</v>
       </c>
       <c r="D3007" t="s">
-        <v>5777</v>
+        <v>5779</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69997,10 +69469,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5778</v>
+        <v>5780</v>
       </c>
       <c r="D3008" t="s">
-        <v>5779</v>
+        <v>5781</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70014,10 +69486,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5780</v>
+        <v>5782</v>
       </c>
       <c r="D3009" t="s">
-        <v>3207</v>
+        <v>5783</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70031,10 +69503,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5781</v>
+        <v>5784</v>
       </c>
       <c r="D3010" t="s">
-        <v>5782</v>
+        <v>5785</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70048,10 +69520,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5783</v>
+        <v>5786</v>
       </c>
       <c r="D3011" t="s">
-        <v>5784</v>
+        <v>5787</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70065,10 +69537,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5785</v>
+        <v>5788</v>
       </c>
       <c r="D3012" t="s">
-        <v>5785</v>
+        <v>5788</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70082,10 +69554,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5786</v>
+        <v>5789</v>
       </c>
       <c r="D3013" t="s">
-        <v>5787</v>
+        <v>5789</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70099,10 +69571,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5788</v>
+        <v>5790</v>
       </c>
       <c r="D3014" t="s">
-        <v>5789</v>
+        <v>5791</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70116,10 +69588,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5790</v>
+        <v>5792</v>
       </c>
       <c r="D3015" t="s">
-        <v>5791</v>
+        <v>5793</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70133,10 +69605,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5792</v>
+        <v>5794</v>
       </c>
       <c r="D3016" t="s">
-        <v>5793</v>
+        <v>5795</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70150,10 +69622,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5794</v>
+        <v>5796</v>
       </c>
       <c r="D3017" t="s">
-        <v>3304</v>
+        <v>5797</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70167,10 +69639,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5795</v>
+        <v>5798</v>
       </c>
       <c r="D3018" t="s">
-        <v>5796</v>
+        <v>5799</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70184,10 +69656,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5797</v>
+        <v>5800</v>
       </c>
       <c r="D3019" t="s">
-        <v>5798</v>
+        <v>5801</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70201,7 +69673,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5799</v>
+        <v>5802</v>
       </c>
       <c r="D3020" t="s">
         <v>1561</v>
@@ -70218,10 +69690,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5800</v>
+        <v>5803</v>
       </c>
       <c r="D3021" t="s">
-        <v>5801</v>
+        <v>5804</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70235,10 +69707,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5802</v>
+        <v>5805</v>
       </c>
       <c r="D3022" t="s">
-        <v>5803</v>
+        <v>5806</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70252,10 +69724,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5804</v>
+        <v>5807</v>
       </c>
       <c r="D3023" t="s">
-        <v>5805</v>
+        <v>5808</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70269,10 +69741,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5806</v>
+        <v>5809</v>
       </c>
       <c r="D3024" t="s">
-        <v>5807</v>
+        <v>5810</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70286,10 +69758,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5808</v>
+        <v>5811</v>
       </c>
       <c r="D3025" t="s">
-        <v>5809</v>
+        <v>5812</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70303,10 +69775,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5810</v>
+        <v>5813</v>
       </c>
       <c r="D3026" t="s">
-        <v>5811</v>
+        <v>5814</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70320,10 +69792,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5812</v>
+        <v>5815</v>
       </c>
       <c r="D3027" t="s">
-        <v>5813</v>
+        <v>5816</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70337,10 +69809,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5814</v>
+        <v>5817</v>
       </c>
       <c r="D3028" t="s">
-        <v>5815</v>
+        <v>5818</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70354,10 +69826,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5816</v>
+        <v>5819</v>
       </c>
       <c r="D3029" t="s">
-        <v>5817</v>
+        <v>5820</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70371,10 +69843,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5818</v>
+        <v>5821</v>
       </c>
       <c r="D3030" t="s">
-        <v>5819</v>
+        <v>5822</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70388,10 +69860,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5820</v>
+        <v>5823</v>
       </c>
       <c r="D3031" t="s">
-        <v>1115</v>
+        <v>1793</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70405,10 +69877,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5821</v>
+        <v>5824</v>
       </c>
       <c r="D3032" t="s">
-        <v>5822</v>
+        <v>5825</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70422,10 +69894,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5823</v>
+        <v>5826</v>
       </c>
       <c r="D3033" t="s">
-        <v>5824</v>
+        <v>5827</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70439,10 +69911,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5825</v>
+        <v>5828</v>
       </c>
       <c r="D3034" t="s">
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70456,10 +69928,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="D3035" t="s">
-        <v>5828</v>
+        <v>4930</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70473,10 +69945,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5829</v>
+        <v>5831</v>
       </c>
       <c r="D3036" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70490,10 +69962,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="D3037" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70507,10 +69979,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
       <c r="D3038" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70524,10 +69996,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="D3039" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70541,10 +70013,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="D3040" t="s">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70558,10 +70030,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5839</v>
+        <v>5841</v>
       </c>
       <c r="D3041" t="s">
-        <v>5840</v>
+        <v>5842</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70575,10 +70047,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5841</v>
+        <v>5843</v>
       </c>
       <c r="D3042" t="s">
-        <v>5842</v>
+        <v>5844</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70592,10 +70064,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="D3043" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70609,10 +70081,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="D3044" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70626,10 +70098,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="D3045" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70643,10 +70115,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="D3046" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70660,10 +70132,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="D3047" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70677,10 +70149,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="D3048" t="s">
-        <v>3107</v>
+        <v>5856</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70694,10 +70166,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5854</v>
+        <v>5857</v>
       </c>
       <c r="D3049" t="s">
-        <v>5855</v>
+        <v>5858</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70711,10 +70183,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5856</v>
+        <v>5859</v>
       </c>
       <c r="D3050" t="s">
-        <v>5857</v>
+        <v>5860</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70728,10 +70200,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5858</v>
+        <v>5861</v>
       </c>
       <c r="D3051" t="s">
-        <v>5859</v>
+        <v>5862</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70745,10 +70217,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5860</v>
+        <v>5863</v>
       </c>
       <c r="D3052" t="s">
-        <v>5861</v>
+        <v>5864</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70762,10 +70234,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5862</v>
+        <v>5865</v>
       </c>
       <c r="D3053" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70779,10 +70251,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
       <c r="D3054" t="s">
-        <v>5865</v>
+        <v>5868</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70796,10 +70268,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5866</v>
+        <v>5869</v>
       </c>
       <c r="D3055" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70813,10 +70285,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5868</v>
+        <v>5871</v>
       </c>
       <c r="D3056" t="s">
-        <v>5869</v>
+        <v>5872</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70830,10 +70302,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5870</v>
+        <v>5873</v>
       </c>
       <c r="D3057" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70847,10 +70319,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
       <c r="D3058" t="s">
-        <v>4203</v>
+        <v>5876</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70864,10 +70336,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5873</v>
+        <v>5877</v>
       </c>
       <c r="D3059" t="s">
-        <v>5874</v>
+        <v>5878</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70881,10 +70353,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5875</v>
+        <v>5879</v>
       </c>
       <c r="D3060" t="s">
-        <v>5876</v>
+        <v>5880</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70898,10 +70370,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5877</v>
+        <v>5881</v>
       </c>
       <c r="D3061" t="s">
-        <v>5878</v>
+        <v>5882</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70912,13 +70384,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5879</v>
+        <v>5883</v>
       </c>
       <c r="C3062" t="s">
-        <v>5880</v>
+        <v>5884</v>
       </c>
       <c r="D3062" t="s">
-        <v>5881</v>
+        <v>5885</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70932,10 +70404,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5882</v>
+        <v>5886</v>
       </c>
       <c r="D3063" t="s">
-        <v>5883</v>
+        <v>5887</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70949,10 +70421,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5884</v>
+        <v>5888</v>
       </c>
       <c r="D3064" t="s">
-        <v>5885</v>
+        <v>5889</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70966,10 +70438,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5886</v>
+        <v>5890</v>
       </c>
       <c r="D3065" t="s">
-        <v>5887</v>
+        <v>5891</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70983,10 +70455,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5888</v>
+        <v>5892</v>
       </c>
       <c r="D3066" t="s">
-        <v>5888</v>
+        <v>5893</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71000,10 +70472,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5889</v>
+        <v>5894</v>
       </c>
       <c r="D3067" t="s">
-        <v>4193</v>
+        <v>976</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71017,10 +70489,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5890</v>
+        <v>5895</v>
       </c>
       <c r="D3068" t="s">
-        <v>5454</v>
+        <v>5896</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71034,10 +70506,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5891</v>
+        <v>5897</v>
       </c>
       <c r="D3069" t="s">
-        <v>5456</v>
+        <v>5898</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71051,10 +70523,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5892</v>
+        <v>5899</v>
       </c>
       <c r="D3070" t="s">
-        <v>5458</v>
+        <v>2433</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71068,10 +70540,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5893</v>
+        <v>5900</v>
       </c>
       <c r="D3071" t="s">
-        <v>5460</v>
+        <v>5901</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71085,10 +70557,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5894</v>
+        <v>5902</v>
       </c>
       <c r="D3072" t="s">
-        <v>5462</v>
+        <v>5902</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71102,10 +70574,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5895</v>
+        <v>5903</v>
       </c>
       <c r="D3073" t="s">
-        <v>5464</v>
+        <v>5903</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71119,10 +70591,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5896</v>
+        <v>5904</v>
       </c>
       <c r="D3074" t="s">
-        <v>5466</v>
+        <v>5905</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71136,10 +70608,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5897</v>
+        <v>5906</v>
       </c>
       <c r="D3075" t="s">
-        <v>5468</v>
+        <v>5907</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71153,10 +70625,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5898</v>
+        <v>5908</v>
       </c>
       <c r="D3076" t="s">
-        <v>5899</v>
+        <v>5909</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71170,10 +70642,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5900</v>
+        <v>5910</v>
       </c>
       <c r="D3077" t="s">
-        <v>5901</v>
+        <v>5911</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71187,10 +70659,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5902</v>
+        <v>5912</v>
       </c>
       <c r="D3078" t="s">
-        <v>5903</v>
+        <v>4538</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71204,10 +70676,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5904</v>
+        <v>5913</v>
       </c>
       <c r="D3079" t="s">
-        <v>5905</v>
+        <v>5914</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71221,10 +70693,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5906</v>
+        <v>5915</v>
       </c>
       <c r="D3080" t="s">
-        <v>5907</v>
+        <v>5916</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71238,10 +70710,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5908</v>
+        <v>5917</v>
       </c>
       <c r="D3081" t="s">
-        <v>5909</v>
+        <v>5918</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71255,10 +70727,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5910</v>
+        <v>5919</v>
       </c>
       <c r="D3082" t="s">
-        <v>5911</v>
+        <v>5920</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71272,10 +70744,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5912</v>
+        <v>5921</v>
       </c>
       <c r="D3083" t="s">
-        <v>5913</v>
+        <v>5922</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71289,10 +70761,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5914</v>
+        <v>5923</v>
       </c>
       <c r="D3084" t="s">
-        <v>5915</v>
+        <v>5924</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71306,10 +70778,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5916</v>
+        <v>5925</v>
       </c>
       <c r="D3085" t="s">
-        <v>5917</v>
+        <v>5926</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71323,10 +70795,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5918</v>
+        <v>5927</v>
       </c>
       <c r="D3086" t="s">
-        <v>5919</v>
+        <v>5928</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71340,10 +70812,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5920</v>
+        <v>5929</v>
       </c>
       <c r="D3087" t="s">
-        <v>5921</v>
+        <v>5930</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71357,10 +70829,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5922</v>
+        <v>5931</v>
       </c>
       <c r="D3088" t="s">
-        <v>5923</v>
+        <v>5931</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71374,10 +70846,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5924</v>
+        <v>5932</v>
       </c>
       <c r="D3089" t="s">
-        <v>5925</v>
+        <v>5933</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71391,10 +70863,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5926</v>
+        <v>5934</v>
       </c>
       <c r="D3090" t="s">
-        <v>5927</v>
+        <v>5935</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71408,10 +70880,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5928</v>
+        <v>5936</v>
       </c>
       <c r="D3091" t="s">
-        <v>5929</v>
+        <v>5937</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71425,10 +70897,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5930</v>
+        <v>5938</v>
       </c>
       <c r="D3092" t="s">
-        <v>1901</v>
+        <v>5939</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71442,10 +70914,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5931</v>
+        <v>5940</v>
       </c>
       <c r="D3093" t="s">
-        <v>5932</v>
+        <v>5941</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71459,10 +70931,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5933</v>
+        <v>5942</v>
       </c>
       <c r="D3094" t="s">
-        <v>5934</v>
+        <v>5942</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71476,10 +70948,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5935</v>
+        <v>5943</v>
       </c>
       <c r="D3095" t="s">
-        <v>5936</v>
+        <v>5944</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71493,10 +70965,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5937</v>
+        <v>5945</v>
       </c>
       <c r="D3096" t="s">
-        <v>5938</v>
+        <v>5946</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71510,10 +70982,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5939</v>
+        <v>5947</v>
       </c>
       <c r="D3097" t="s">
-        <v>5940</v>
+        <v>5948</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71527,10 +70999,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5941</v>
+        <v>5949</v>
       </c>
       <c r="D3098" t="s">
-        <v>5941</v>
+        <v>5950</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71544,10 +71016,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5942</v>
+        <v>5951</v>
       </c>
       <c r="D3099" t="s">
-        <v>5943</v>
+        <v>5952</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71561,10 +71033,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5944</v>
+        <v>5953</v>
       </c>
       <c r="D3100" t="s">
-        <v>5945</v>
+        <v>5954</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71578,10 +71050,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5946</v>
+        <v>5955</v>
       </c>
       <c r="D3101" t="s">
-        <v>5947</v>
+        <v>1504</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71595,10 +71067,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5948</v>
+        <v>5956</v>
       </c>
       <c r="D3102" t="s">
-        <v>5949</v>
+        <v>5957</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71612,10 +71084,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5950</v>
+        <v>5958</v>
       </c>
       <c r="D3103" t="s">
-        <v>5951</v>
+        <v>5959</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71629,10 +71101,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5952</v>
+        <v>5960</v>
       </c>
       <c r="D3104" t="s">
-        <v>5953</v>
+        <v>5961</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71646,10 +71118,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5954</v>
+        <v>5962</v>
       </c>
       <c r="D3105" t="s">
-        <v>5955</v>
+        <v>5963</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71663,10 +71135,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5956</v>
+        <v>5964</v>
       </c>
       <c r="D3106" t="s">
-        <v>5957</v>
+        <v>5965</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71680,10 +71152,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5958</v>
+        <v>5966</v>
       </c>
       <c r="D3107" t="s">
-        <v>5959</v>
+        <v>5967</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71697,10 +71169,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5960</v>
+        <v>5968</v>
       </c>
       <c r="D3108" t="s">
-        <v>5961</v>
+        <v>5969</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71713,11 +71185,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5962</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5963</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71730,11 +71202,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5971</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71748,10 +71220,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5964</v>
+        <v>5972</v>
       </c>
       <c r="D3111" t="s">
-        <v>5964</v>
+        <v>5973</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71765,10 +71237,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5965</v>
+        <v>5974</v>
       </c>
       <c r="D3112" t="s">
-        <v>5965</v>
+        <v>5975</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71782,10 +71254,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5966</v>
+        <v>5976</v>
       </c>
       <c r="D3113" t="s">
-        <v>5967</v>
+        <v>5977</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71799,10 +71271,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5968</v>
+        <v>5978</v>
       </c>
       <c r="D3114" t="s">
-        <v>5969</v>
+        <v>5979</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71816,10 +71288,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5970</v>
+        <v>5980</v>
       </c>
       <c r="D3115" t="s">
-        <v>5971</v>
+        <v>5981</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71833,10 +71305,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5972</v>
+        <v>5982</v>
       </c>
       <c r="D3116" t="s">
-        <v>5973</v>
+        <v>5983</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71850,10 +71322,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5974</v>
+        <v>5984</v>
       </c>
       <c r="D3117" t="s">
-        <v>5975</v>
+        <v>5985</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71867,10 +71339,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5976</v>
+        <v>5986</v>
       </c>
       <c r="D3118" t="s">
-        <v>5977</v>
+        <v>5987</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71884,1678 +71356,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5978</v>
+        <v>5988</v>
       </c>
       <c r="D3119" t="s">
-        <v>5979</v>
+        <v>5989</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5999</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6000</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6001</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6002</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6003</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6004</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6005</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6006</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6007</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6048</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5879</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6058</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6058</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6143</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6144</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6145</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6146</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6147</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6148</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6149</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6150</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6151</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6152</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6153</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6154</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6155</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6156</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2915</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2214</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
